--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>S/N</t>
   </si>
@@ -218,6 +218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +246,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -272,6 +274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -299,6 +302,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,6 +330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,6 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -388,6 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,6 +422,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,6 +450,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -455,6 +464,14 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Overdue Days </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_current_overdue_days%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +656,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,7 +724,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +759,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -961,12 +984,12 @@
     <col min="7" max="7" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="18" customWidth="1"/>
     <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="24.375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="45.625" style="18" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="18"/>
+    <col min="10" max="13" width="24.375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="45.625" style="18" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,16 +1021,19 @@
         <v>31</v>
       </c>
       <c r="K1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -1035,21 +1061,24 @@
       <c r="I2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>S/N</t>
   </si>
@@ -195,6 +195,238 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_containers_no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_containers_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_masterbi_carrier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_containers_bl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_masterbi_cargo_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discharge Date</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_masterbi_destination</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_vessel_ata%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Overdue Days </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_current_overdue_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_demurrage_party%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=rs1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>invoice_containers_empty_return_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_free_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demurrage party</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>Deposit party</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -211,7 +443,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>invoice_containers_no</t>
+      <t>invoice_masterbi_deposit_party</t>
     </r>
     <r>
       <rPr>
@@ -224,254 +456,6 @@
       </rPr>
       <t>%&gt;</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_containers_size</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_masterbi_carrier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_containers_bl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_masterbi_cargo_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discharge Date</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_masterbi_destination</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_vessel_ata%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_containers_empty_return_date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_containers_free_days</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_masterbi_deposit_party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_days%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Current Overdue Days </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.invoice_containers_current_overdue_days%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -657,11 +641,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -968,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -984,12 +968,12 @@
     <col min="7" max="7" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="18" customWidth="1"/>
     <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="24.375" style="18" customWidth="1"/>
-    <col min="14" max="14" width="45.625" style="18" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="18"/>
+    <col min="10" max="14" width="24.375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="45.625" style="18" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="16" t="s">
         <v>28</v>
@@ -1021,7 +1005,7 @@
         <v>31</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L1" s="17" t="s">
         <v>32</v>
@@ -1030,55 +1014,61 @@
         <v>33</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="N2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="19" t="s">
-        <v>45</v>
+      <c r="O2" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:O1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>S/N</t>
   </si>
@@ -456,6 +456,22 @@
       </rPr>
       <t>%&gt;</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vessel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voyage</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_vessel_name%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_vessel_voyage%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -964,16 +980,17 @@
     <col min="2" max="2" width="23.875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.625" style="18" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="18" customWidth="1"/>
+    <col min="6" max="7" width="18.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="24.375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="45.625" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="18"/>
+    <col min="10" max="10" width="15" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="24.375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="45.625" style="18" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,38 +1006,44 @@
       <c r="E1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -1037,38 +1060,44 @@
         <v>37</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:Q1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>S/N</t>
   </si>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_days%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -383,14 +379,22 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_current_overdue_days%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.invoice_masterbi_demurrage_party%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;%=rs1.invoice_containers_free_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demurrage party</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deposit party</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>&lt;%=rs1.</t>
     </r>
@@ -403,7 +407,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>invoice_containers_empty_return_date</t>
+      <t>invoice_masterbi_deposit_party</t>
     </r>
     <r>
       <rPr>
@@ -419,46 +423,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_containers_free_days%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demurrage party</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deposit party</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_masterbi_deposit_party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Vessel</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -472,6 +436,26 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_vessel_voyage%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receipt Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_actually_return_date%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_actually_return_overdue_amount%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_actually_return_overdue_days%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount_receipt%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -968,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -985,12 +969,12 @@
     <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="18" customWidth="1"/>
     <col min="11" max="11" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="24.375" style="18" customWidth="1"/>
-    <col min="17" max="17" width="45.625" style="18" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="18"/>
+    <col min="12" max="17" width="24.375" style="18" customWidth="1"/>
+    <col min="18" max="18" width="45.625" style="18" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,10 +991,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>29</v>
@@ -1028,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>32</v>
@@ -1036,14 +1020,17 @@
       <c r="O1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>49</v>
+      <c r="P1" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -1060,10 +1047,10 @@
         <v>37</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>38</v>
@@ -1075,29 +1062,32 @@
         <v>41</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:R1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -367,10 +367,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.invoice_vessel_ata%&gt;</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_days%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -456,6 +452,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount_receipt%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.discharge_date%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,10 +991,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>29</v>
@@ -1012,7 +1012,7 @@
         <v>31</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>32</v>
@@ -1021,13 +1021,13 @@
         <v>33</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -1047,10 +1047,10 @@
         <v>37</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>38</v>
@@ -1059,31 +1059,31 @@
         <v>40</v>
       </c>
       <c r="J2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="O2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="P2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>57</v>
-      </c>
       <c r="Q2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>S/N</t>
   </si>
@@ -451,11 +451,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;%=rs1.discharge_date%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deduction Amount</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_amount_receipt%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.discharge_date%&gt;</t>
+    <t>&lt;%=rs1.invoice_containers_empty_return_overdue_deduction%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,12 +977,12 @@
     <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="18" customWidth="1"/>
     <col min="11" max="11" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="24.375" style="18" customWidth="1"/>
-    <col min="18" max="18" width="45.625" style="18" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="18"/>
+    <col min="12" max="18" width="24.375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="45.625" style="18" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,14 +1031,17 @@
       <c r="P1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>53</v>
@@ -1077,17 +1088,20 @@
         <v>54</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:S1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEE586-3DA3-A840-8DB1-799E3DA22DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>S/N</t>
   </si>
@@ -466,12 +467,20 @@
     <t>&lt;%=rs1.invoice_containers_empty_return_overdue_deduction%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>Consignee Name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_consignee_name%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,7 +666,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,6 +758,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -784,6 +810,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -959,30 +1002,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="23.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="18" customWidth="1"/>
     <col min="11" max="11" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="24.375" style="18" customWidth="1"/>
-    <col min="19" max="19" width="45.625" style="18" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="18"/>
+    <col min="12" max="18" width="24.33203125" style="18" customWidth="1"/>
+    <col min="19" max="19" width="45.6640625" style="18" customWidth="1"/>
+    <col min="20" max="20" width="44.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +1084,11 @@
       <c r="S1" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="T1" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -1099,9 +1146,12 @@
       <c r="S2" s="19" t="s">
         <v>47</v>
       </c>
+      <c r="T2" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1109,21 +1159,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1202,12 +1252,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelTemplate/OverdueTemplate.xlsx
+++ b/excelTemplate/OverdueTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEE586-3DA3-A840-8DB1-799E3DA22DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287D936A-D745-BD49-A4DC-A80CF26005AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,34 +392,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;%=rs1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>invoice_masterbi_deposit_party</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Vessel</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -473,6 +445,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.invoice_masterbi_consignee_name%&gt;</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.invoice_masterbi_deposit_party%&gt;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -594,32 +570,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,34 +607,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,9 +644,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -723,9 +684,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,26 +719,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,26 +754,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1011,143 +938,141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="23.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="18" customWidth="1"/>
-    <col min="11" max="11" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="24.33203125" style="18" customWidth="1"/>
-    <col min="19" max="19" width="45.6640625" style="18" customWidth="1"/>
-    <col min="20" max="20" width="44.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="18"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="45.6640625" customWidth="1"/>
+    <col min="20" max="20" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="P1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>60</v>
+      <c r="T1" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="18" t="s">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="19" t="s">
+      <c r="S2" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1195,52 +1120,52 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
